--- a/BlankVer.xlsx
+++ b/BlankVer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atran52/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35955B87-C3B5-5C40-955B-2A82A9A1E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA608A-8769-ED49-8ED9-67A20DD81C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1900,6 +1900,7 @@
     <xf numFmtId="0" fontId="39" fillId="41" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1993,145 +1994,6 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="118">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" wrapText="1" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2383,35 +2245,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" wrapText="1" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2654,228 +2487,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3380,6 +2991,396 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" wrapText="1" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" wrapText="1" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left/>
         <right/>
@@ -3697,29 +3698,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones4352" displayName="Milestones4352" ref="B10:L314" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones4352" displayName="Milestones4352" ref="B10:L314" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="B10:L314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feature Area" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strategic Theme ID" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Name" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Predecessors" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Successors" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="State" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="44" dataCellStyle="Date"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="End Date" dataDxfId="43" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days" dataDxfId="42" dataCellStyle="Comma [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feature Area" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strategic Theme ID" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Name" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Predecessors" dataDxfId="99"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Successors" dataDxfId="98"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="State" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="95" dataCellStyle="Date"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="End Date" dataDxfId="94" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days" dataDxfId="93" dataCellStyle="Comma [0]">
       <calculatedColumnFormula>Milestones4352[[#This Row],[End Date]]-Milestones4352[[#This Row],[Start Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GoLive" dataDxfId="41" dataCellStyle="Comma [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GoLive" dataDxfId="92" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="91">
   <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3729,9 +3730,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone description" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Assigned to" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone description" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Assigned to" dataDxfId="88"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3741,7 +3742,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones43524" displayName="Milestones43524" ref="B9:L36" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones43524" displayName="Milestones43524" ref="B9:L36" totalsRowShown="0" headerRowDxfId="87">
   <autoFilter ref="B9:L36" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3756,15 +3757,15 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Milestone description" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Category" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Assigned to" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Milestone description" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Category" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Assigned to" dataDxfId="84"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Progress"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column4" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column5" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column3" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column2" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column1" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column4" dataDxfId="83" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column5" dataDxfId="82" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column3" dataDxfId="81" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column2" dataDxfId="80" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column1" dataDxfId="79" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
@@ -4056,11 +4057,11 @@
     <row r="2" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
       <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -4088,11 +4089,11 @@
     <row r="4" spans="1:13" s="197" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="92"/>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="92"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4105,11 +4106,11 @@
     <row r="5" spans="1:13" s="197" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="92"/>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
       <c r="F5" s="92"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4209,10 +4210,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W1444"/>
+  <dimension ref="A1:X1444"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="69" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4227,40 +4228,41 @@
     <col min="8" max="8" width="18.5" style="198" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="200" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="200" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="201" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.5" style="198" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.1640625" style="201" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.5" style="198" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="16.83203125" style="198" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" style="204" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:23" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
@@ -4277,7 +4279,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -4302,27 +4304,27 @@
       <c r="L4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="210" t="s">
+      <c r="M4" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="209"/>
+      <c r="N4" s="210"/>
       <c r="O4" s="116"/>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="209"/>
+      <c r="Q4" s="210"/>
       <c r="R4" s="112"/>
-      <c r="S4" s="219" t="s">
+      <c r="S4" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="209"/>
+      <c r="T4" s="210"/>
       <c r="U4" s="112"/>
-      <c r="V4" s="208" t="s">
+      <c r="V4" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="209"/>
-    </row>
-    <row r="5" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="210"/>
+    </row>
+    <row r="5" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="64" t="s">
         <v>13</v>
@@ -4342,7 +4344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="65" t="s">
         <v>15</v>
@@ -4411,7 +4413,7 @@
         <v>May-28-24</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
@@ -4474,7 +4476,7 @@
         <v>Aug-05-24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="65" t="s">
         <v>19</v>
@@ -4536,7 +4538,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -4558,7 +4560,7 @@
       <c r="V9" s="86"/>
       <c r="W9" s="86"/>
     </row>
-    <row r="10" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="99" t="s">
         <v>21</v>
@@ -4627,7 +4629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="138"/>
       <c r="C11" s="171"/>
       <c r="D11" s="136"/>
@@ -4653,8 +4655,12 @@
       <c r="U11" s="137"/>
       <c r="V11" s="137"/>
       <c r="W11" s="137"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="138"/>
       <c r="C12" s="136"/>
@@ -4702,8 +4708,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="138"/>
       <c r="C13" s="152"/>
@@ -4745,8 +4755,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="138"/>
       <c r="C14" s="152"/>
@@ -4794,8 +4808,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="138"/>
       <c r="C15" s="152"/>
@@ -4840,8 +4858,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="138"/>
       <c r="C16" s="152"/>
@@ -4889,8 +4911,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X16" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="138"/>
       <c r="C17" s="153"/>
@@ -4938,8 +4964,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X17" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="138"/>
       <c r="C18" s="152"/>
@@ -4972,8 +5002,12 @@
       <c r="U18" s="107"/>
       <c r="V18" s="107"/>
       <c r="W18" s="107"/>
-    </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X18" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="138"/>
       <c r="C19" s="152"/>
@@ -5021,8 +5055,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X19" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="138"/>
       <c r="C20" s="152"/>
@@ -5070,8 +5108,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X20" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="138"/>
       <c r="C21" s="152"/>
@@ -5119,8 +5161,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X21" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="138"/>
       <c r="C22" s="152"/>
@@ -5168,8 +5214,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X22" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="138"/>
       <c r="C23" s="184"/>
@@ -5217,8 +5267,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X23" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="138"/>
       <c r="C24" s="185"/>
@@ -5266,8 +5320,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="138"/>
       <c r="C25" s="185"/>
@@ -5315,8 +5373,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X25" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="138"/>
       <c r="C26" s="185"/>
@@ -5364,8 +5426,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X26" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="138"/>
       <c r="C27" s="185"/>
@@ -5413,8 +5479,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="138"/>
       <c r="C28" s="185"/>
@@ -5462,8 +5532,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="138"/>
       <c r="C29" s="184"/>
@@ -5511,8 +5585,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X29" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="138"/>
       <c r="C30" s="185"/>
@@ -5560,8 +5638,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X30" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="138"/>
       <c r="C31" s="185"/>
@@ -5609,8 +5691,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X31" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="138"/>
       <c r="C32" s="185"/>
@@ -5658,8 +5744,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X32" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="138"/>
       <c r="C33" s="185"/>
@@ -5707,8 +5797,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X33" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="138"/>
       <c r="C34" s="185"/>
@@ -5756,8 +5850,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="138"/>
       <c r="C35" s="185"/>
@@ -5805,8 +5903,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="138"/>
       <c r="C36" s="185"/>
@@ -5854,8 +5956,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X36" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="171"/>
       <c r="D37" s="183"/>
@@ -5902,8 +6008,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X37" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="171"/>
       <c r="D38" s="189"/>
@@ -5950,8 +6060,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X38" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="138"/>
       <c r="C39" s="171"/>
       <c r="D39" s="183"/>
@@ -5998,8 +6112,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X39" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="171"/>
       <c r="D40" s="183"/>
@@ -6046,8 +6164,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X40" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="171"/>
       <c r="D41" s="183"/>
@@ -6094,8 +6216,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="138"/>
       <c r="C42" s="171"/>
       <c r="D42" s="183"/>
@@ -6142,8 +6268,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X42" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="171"/>
       <c r="D43" s="183"/>
@@ -6190,8 +6320,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X43" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="171"/>
       <c r="D44" s="183"/>
@@ -6238,8 +6372,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="138"/>
       <c r="C45" s="171"/>
       <c r="D45" s="183"/>
@@ -6286,8 +6424,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X45" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="171"/>
       <c r="D46" s="183"/>
@@ -6334,8 +6476,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X46" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="171"/>
       <c r="D47" s="183"/>
@@ -6382,8 +6528,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X47" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="138"/>
       <c r="C48" s="171"/>
       <c r="D48" s="183"/>
@@ -6430,8 +6580,12 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X48" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="171"/>
       <c r="D49" s="183"/>
@@ -6478,8 +6632,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="171"/>
       <c r="D50" s="183"/>
@@ -6526,8 +6684,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="138"/>
       <c r="C51" s="171"/>
       <c r="D51" s="183"/>
@@ -6574,8 +6736,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="138"/>
       <c r="C52" s="171"/>
       <c r="D52" s="183"/>
@@ -6622,8 +6788,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X52" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="138"/>
       <c r="C53" s="171"/>
       <c r="D53" s="183"/>
@@ -6670,8 +6840,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X53" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="138"/>
       <c r="C54" s="171"/>
       <c r="D54" s="183"/>
@@ -6718,8 +6892,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X54" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="138"/>
       <c r="C55" s="171"/>
       <c r="D55" s="183"/>
@@ -6766,8 +6944,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X55" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="138"/>
       <c r="C56" s="171"/>
       <c r="D56" s="183"/>
@@ -6814,8 +6996,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X56" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="138"/>
       <c r="C57" s="171"/>
       <c r="D57" s="183"/>
@@ -6862,8 +7048,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X57" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="138"/>
       <c r="C58" s="171"/>
       <c r="D58" s="183"/>
@@ -6910,8 +7100,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X58" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="138"/>
       <c r="C59" s="171"/>
       <c r="D59" s="183"/>
@@ -6958,8 +7152,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X59" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="138"/>
       <c r="C60" s="171"/>
       <c r="D60" s="183"/>
@@ -7006,8 +7204,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X60" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="138"/>
       <c r="C61" s="171"/>
       <c r="D61" s="183"/>
@@ -7054,8 +7256,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="138"/>
       <c r="C62" s="171"/>
       <c r="D62" s="183"/>
@@ -7102,8 +7308,12 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X62" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="138"/>
       <c r="C63" s="171"/>
       <c r="D63" s="183"/>
@@ -7150,8 +7360,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X63" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="138"/>
       <c r="C64" s="171"/>
       <c r="D64" s="183"/>
@@ -7198,8 +7412,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X64" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="138"/>
       <c r="C65" s="171"/>
       <c r="D65" s="183"/>
@@ -7246,8 +7464,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X65" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="138"/>
       <c r="C66" s="171"/>
       <c r="D66" s="183"/>
@@ -7294,8 +7516,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X66" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="138"/>
       <c r="C67" s="171"/>
       <c r="D67" s="183"/>
@@ -7342,8 +7568,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X67" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="138"/>
       <c r="C68" s="171"/>
       <c r="D68" s="183"/>
@@ -7390,8 +7620,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X68" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="138"/>
       <c r="C69" s="171"/>
       <c r="D69" s="183"/>
@@ -7438,8 +7672,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X69" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="138"/>
       <c r="C70" s="171"/>
       <c r="D70" s="183"/>
@@ -7486,8 +7724,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X70" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="138"/>
       <c r="C71" s="171"/>
       <c r="D71" s="183"/>
@@ -7534,8 +7776,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X71" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="138"/>
       <c r="C72" s="171"/>
       <c r="D72" s="183"/>
@@ -7582,8 +7828,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X72" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="138"/>
       <c r="C73" s="171"/>
       <c r="D73" s="183"/>
@@ -7630,8 +7880,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X73" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="138"/>
       <c r="C74" s="171"/>
       <c r="D74" s="183"/>
@@ -7678,8 +7932,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X74" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="138"/>
       <c r="C75" s="171"/>
       <c r="D75" s="183"/>
@@ -7726,8 +7984,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X75" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="138"/>
       <c r="C76" s="171"/>
       <c r="D76" s="183"/>
@@ -7774,8 +8036,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X76" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="138"/>
       <c r="C77" s="171"/>
       <c r="D77" s="183"/>
@@ -7822,8 +8088,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X77" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="138"/>
       <c r="C78" s="171"/>
       <c r="D78" s="183"/>
@@ -7870,8 +8140,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X78" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="138"/>
       <c r="C79" s="171"/>
       <c r="D79" s="183"/>
@@ -7918,8 +8192,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X79" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="138"/>
       <c r="C80" s="171"/>
       <c r="D80" s="183"/>
@@ -7966,8 +8244,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X80" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="138"/>
       <c r="C81" s="171"/>
       <c r="D81" s="183"/>
@@ -8014,8 +8296,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X81" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="138"/>
       <c r="C82" s="171"/>
       <c r="D82" s="183"/>
@@ -8062,8 +8348,12 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X82" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="138"/>
       <c r="C83" s="171"/>
       <c r="D83" s="183"/>
@@ -8110,8 +8400,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X83" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="138"/>
       <c r="C84" s="171"/>
       <c r="D84" s="183"/>
@@ -8158,8 +8452,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X84" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="138"/>
       <c r="C85" s="171"/>
       <c r="D85" s="183"/>
@@ -8206,8 +8504,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X85" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="138"/>
       <c r="C86" s="171"/>
       <c r="D86" s="183"/>
@@ -8254,8 +8556,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X86" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="138"/>
       <c r="C87" s="171"/>
       <c r="D87" s="183"/>
@@ -8302,8 +8608,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X87" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="138"/>
       <c r="C88" s="171"/>
       <c r="D88" s="183"/>
@@ -8350,8 +8660,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X88" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="138"/>
       <c r="C89" s="171"/>
       <c r="D89" s="183"/>
@@ -8398,8 +8712,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X89" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="138"/>
       <c r="C90" s="171"/>
       <c r="D90" s="183"/>
@@ -8446,8 +8764,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X90" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="138"/>
       <c r="C91" s="171"/>
       <c r="D91" s="183"/>
@@ -8494,8 +8816,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X91" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="138"/>
       <c r="C92" s="171"/>
       <c r="D92" s="183"/>
@@ -8542,8 +8868,12 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X92" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="138"/>
       <c r="C93" s="171"/>
       <c r="D93" s="183"/>
@@ -8590,8 +8920,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X93" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="138"/>
       <c r="C94" s="171"/>
       <c r="D94" s="183"/>
@@ -8638,8 +8972,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X94" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="138"/>
       <c r="C95" s="171"/>
       <c r="D95" s="183"/>
@@ -8686,8 +9024,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X95" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="138"/>
       <c r="C96" s="171"/>
       <c r="D96" s="183"/>
@@ -8734,8 +9076,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X96" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="138"/>
       <c r="C97" s="171"/>
       <c r="D97" s="183"/>
@@ -8782,8 +9128,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X97" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="138"/>
       <c r="C98" s="171"/>
       <c r="D98" s="183"/>
@@ -8830,8 +9180,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X98" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="138"/>
       <c r="C99" s="171"/>
       <c r="D99" s="183"/>
@@ -8878,8 +9232,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X99" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="138"/>
       <c r="C100" s="171"/>
       <c r="D100" s="183"/>
@@ -8926,8 +9284,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X100" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="138"/>
       <c r="C101" s="171"/>
       <c r="D101" s="183"/>
@@ -8974,8 +9336,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X101" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="138"/>
       <c r="C102" s="171"/>
       <c r="D102" s="183"/>
@@ -9022,8 +9388,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X102" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="138"/>
       <c r="C103" s="171"/>
       <c r="D103" s="183"/>
@@ -9070,8 +9440,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X103" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="138"/>
       <c r="C104" s="171"/>
       <c r="D104" s="183"/>
@@ -9118,8 +9492,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X104" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="138"/>
       <c r="C105" s="171"/>
       <c r="D105" s="183"/>
@@ -9166,8 +9544,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X105" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="138"/>
       <c r="C106" s="171"/>
       <c r="D106" s="183"/>
@@ -9214,8 +9596,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X106" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="138"/>
       <c r="C107" s="171"/>
       <c r="D107" s="183"/>
@@ -9262,8 +9648,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X107" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="138"/>
       <c r="C108" s="171"/>
       <c r="D108" s="183"/>
@@ -9310,8 +9700,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X108" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="138"/>
       <c r="C109" s="171"/>
       <c r="D109" s="183"/>
@@ -9358,8 +9752,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X109" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="138"/>
       <c r="C110" s="171"/>
       <c r="D110" s="183"/>
@@ -9406,8 +9804,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X110" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="138"/>
       <c r="C111" s="171"/>
       <c r="D111" s="183"/>
@@ -9454,8 +9856,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X111" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="138"/>
       <c r="C112" s="171"/>
       <c r="D112" s="183"/>
@@ -9502,8 +9908,12 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X112" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="138"/>
       <c r="C113" s="171"/>
       <c r="D113" s="183"/>
@@ -9550,8 +9960,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X113" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="138"/>
       <c r="C114" s="171"/>
       <c r="D114" s="183"/>
@@ -9598,8 +10012,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X114" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="138"/>
       <c r="C115" s="171"/>
       <c r="D115" s="183"/>
@@ -9646,8 +10064,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X115" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="138"/>
       <c r="C116" s="171"/>
       <c r="D116" s="183"/>
@@ -9694,8 +10116,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X116" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="138"/>
       <c r="C117" s="171"/>
       <c r="D117" s="183"/>
@@ -9742,8 +10168,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X117" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="138"/>
       <c r="C118" s="171"/>
       <c r="D118" s="183"/>
@@ -9790,8 +10220,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X118" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="138"/>
       <c r="C119" s="171"/>
       <c r="D119" s="183"/>
@@ -9838,8 +10272,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X119" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="138"/>
       <c r="C120" s="171"/>
       <c r="D120" s="183"/>
@@ -9889,8 +10327,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X120" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="138"/>
       <c r="C121" s="171"/>
       <c r="D121" s="183"/>
@@ -9940,8 +10382,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X121" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="138"/>
       <c r="C122" s="171"/>
       <c r="D122" s="183"/>
@@ -9991,8 +10437,12 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X122" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="138"/>
       <c r="C123" s="171"/>
       <c r="D123" s="183"/>
@@ -10042,8 +10492,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X123" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="138"/>
       <c r="C124" s="171"/>
       <c r="D124" s="183"/>
@@ -10093,8 +10547,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X124" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="138"/>
       <c r="C125" s="171"/>
       <c r="D125" s="183"/>
@@ -10144,8 +10602,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X125" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="138"/>
       <c r="C126" s="171"/>
       <c r="D126" s="183"/>
@@ -10195,8 +10657,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X126" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="138"/>
       <c r="C127" s="171"/>
       <c r="D127" s="183"/>
@@ -10246,8 +10712,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X127" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="138"/>
       <c r="C128" s="171"/>
       <c r="D128" s="183"/>
@@ -10297,8 +10767,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X128" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="138"/>
       <c r="C129" s="171"/>
       <c r="D129" s="183"/>
@@ -10348,8 +10822,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X129" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="138"/>
       <c r="C130" s="171"/>
       <c r="D130" s="183"/>
@@ -10399,8 +10877,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X130" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="138"/>
       <c r="C131" s="171"/>
       <c r="D131" s="183"/>
@@ -10450,8 +10932,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X131" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="138"/>
       <c r="C132" s="171"/>
       <c r="D132" s="183"/>
@@ -10501,8 +10987,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X132" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="138"/>
       <c r="C133" s="171"/>
       <c r="D133" s="183"/>
@@ -10552,8 +11042,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X133" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="138"/>
       <c r="C134" s="171"/>
       <c r="D134" s="183"/>
@@ -10603,8 +11097,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X134" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="138"/>
       <c r="C135" s="171"/>
       <c r="D135" s="183"/>
@@ -10654,8 +11152,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X135" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="138"/>
       <c r="C136" s="171"/>
       <c r="D136" s="183"/>
@@ -10705,8 +11207,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X136" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="138"/>
       <c r="C137" s="171"/>
       <c r="D137" s="183"/>
@@ -10756,8 +11262,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X137" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="138"/>
       <c r="C138" s="171"/>
       <c r="D138" s="183"/>
@@ -10807,8 +11317,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X138" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="138"/>
       <c r="C139" s="171"/>
       <c r="D139" s="183"/>
@@ -10858,8 +11372,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X139" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="138"/>
       <c r="C140" s="171"/>
       <c r="D140" s="183"/>
@@ -10909,8 +11427,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X140" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="138"/>
       <c r="C141" s="171"/>
       <c r="D141" s="183"/>
@@ -10960,8 +11482,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X141" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="138"/>
       <c r="C142" s="171"/>
       <c r="D142" s="183"/>
@@ -11011,8 +11537,12 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X142" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="138"/>
       <c r="C143" s="171"/>
       <c r="D143" s="183"/>
@@ -11062,8 +11592,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X143" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="138"/>
       <c r="C144" s="171"/>
       <c r="D144" s="183"/>
@@ -11113,8 +11647,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X144" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="138"/>
       <c r="C145" s="171"/>
       <c r="D145" s="183"/>
@@ -11164,8 +11702,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X145" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="138"/>
       <c r="C146" s="171"/>
       <c r="D146" s="183"/>
@@ -11215,8 +11757,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X146" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="138"/>
       <c r="C147" s="171"/>
       <c r="D147" s="183"/>
@@ -11266,8 +11812,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X147" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="138"/>
       <c r="C148" s="171"/>
       <c r="D148" s="183"/>
@@ -11317,8 +11867,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X148" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="138"/>
       <c r="C149" s="171"/>
       <c r="D149" s="183"/>
@@ -11368,8 +11922,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X149" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="138"/>
       <c r="C150" s="171"/>
       <c r="D150" s="183"/>
@@ -11419,8 +11977,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X150" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="138"/>
       <c r="C151" s="171"/>
       <c r="D151" s="183"/>
@@ -11470,8 +12032,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X151" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="138"/>
       <c r="C152" s="171"/>
       <c r="D152" s="183"/>
@@ -11521,8 +12087,12 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X152" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="138"/>
       <c r="C153" s="171"/>
       <c r="D153" s="183"/>
@@ -11572,8 +12142,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X153" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="138"/>
       <c r="C154" s="171"/>
       <c r="D154" s="183"/>
@@ -11623,8 +12197,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X154" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="138"/>
       <c r="C155" s="171"/>
       <c r="D155" s="183"/>
@@ -11674,8 +12252,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X155" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="138"/>
       <c r="C156" s="171"/>
       <c r="D156" s="183"/>
@@ -11725,8 +12307,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X156" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="138"/>
       <c r="C157" s="171"/>
       <c r="D157" s="183"/>
@@ -11776,8 +12362,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X157" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="138"/>
       <c r="C158" s="171"/>
       <c r="D158" s="183"/>
@@ -11827,8 +12417,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X158" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="138"/>
       <c r="C159" s="171"/>
       <c r="D159" s="183"/>
@@ -11878,8 +12472,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X159" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="138"/>
       <c r="C160" s="171"/>
       <c r="D160" s="183"/>
@@ -11929,8 +12527,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X160" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="138"/>
       <c r="C161" s="171"/>
       <c r="D161" s="183"/>
@@ -11980,8 +12582,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X161" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="138"/>
       <c r="C162" s="171"/>
       <c r="D162" s="183"/>
@@ -12031,8 +12637,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X162" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="138"/>
       <c r="C163" s="171"/>
       <c r="D163" s="183"/>
@@ -12082,8 +12692,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X163" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="138"/>
       <c r="C164" s="171"/>
       <c r="D164" s="183"/>
@@ -12133,8 +12747,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X164" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="138"/>
       <c r="C165" s="171"/>
       <c r="D165" s="183"/>
@@ -12184,8 +12802,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X165" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="138"/>
       <c r="C166" s="171"/>
       <c r="D166" s="183"/>
@@ -12235,8 +12857,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X166" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="138"/>
       <c r="C167" s="171"/>
       <c r="D167" s="183"/>
@@ -12286,8 +12912,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X167" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="138"/>
       <c r="C168" s="171"/>
       <c r="D168" s="183"/>
@@ -12337,8 +12967,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X168" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="138"/>
       <c r="C169" s="171"/>
       <c r="D169" s="183"/>
@@ -12388,8 +13022,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X169" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="138"/>
       <c r="C170" s="171"/>
       <c r="D170" s="183"/>
@@ -12439,8 +13077,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X170" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="138"/>
       <c r="C171" s="171"/>
       <c r="D171" s="183"/>
@@ -12490,8 +13132,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X171" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="138"/>
       <c r="C172" s="171"/>
       <c r="D172" s="183"/>
@@ -12541,8 +13187,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X172" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="138"/>
       <c r="C173" s="171"/>
       <c r="D173" s="183"/>
@@ -12592,8 +13242,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X173" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="138"/>
       <c r="C174" s="171"/>
       <c r="D174" s="183"/>
@@ -12643,8 +13297,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X174" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="138"/>
       <c r="C175" s="171"/>
       <c r="D175" s="183"/>
@@ -12694,8 +13352,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X175" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="138"/>
       <c r="C176" s="171"/>
       <c r="D176" s="183"/>
@@ -12745,8 +13407,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X176" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="138"/>
       <c r="C177" s="171"/>
       <c r="D177" s="183"/>
@@ -12796,8 +13462,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X177" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="138"/>
       <c r="C178" s="171"/>
       <c r="D178" s="183"/>
@@ -12847,8 +13517,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X178" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="138"/>
       <c r="C179" s="171"/>
       <c r="D179" s="183"/>
@@ -12898,8 +13572,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X179" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="138"/>
       <c r="C180" s="171"/>
       <c r="D180" s="183"/>
@@ -12949,8 +13627,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X180" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="138"/>
       <c r="C181" s="171"/>
       <c r="D181" s="183"/>
@@ -13000,8 +13682,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X181" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="138"/>
       <c r="C182" s="171"/>
       <c r="D182" s="183"/>
@@ -13051,8 +13737,12 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X182" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="138"/>
       <c r="C183" s="171"/>
       <c r="D183" s="183"/>
@@ -13102,8 +13792,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X183" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="138"/>
       <c r="C184" s="171"/>
       <c r="D184" s="183"/>
@@ -13153,8 +13847,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X184" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="138"/>
       <c r="C185" s="171"/>
       <c r="D185" s="183"/>
@@ -13204,8 +13902,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X185" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="138"/>
       <c r="C186" s="171"/>
       <c r="D186" s="183"/>
@@ -13255,8 +13957,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X186" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="138"/>
       <c r="C187" s="171"/>
       <c r="D187" s="183"/>
@@ -13306,8 +14012,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X187" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="138"/>
       <c r="C188" s="171"/>
       <c r="D188" s="183"/>
@@ -13357,8 +14067,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X188" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="138"/>
       <c r="C189" s="171"/>
       <c r="D189" s="183"/>
@@ -13408,8 +14122,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X189" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="138"/>
       <c r="C190" s="171"/>
       <c r="D190" s="183"/>
@@ -13459,8 +14177,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X190" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="138"/>
       <c r="C191" s="171"/>
       <c r="D191" s="183"/>
@@ -13510,8 +14232,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X191" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="138"/>
       <c r="C192" s="171"/>
       <c r="D192" s="183"/>
@@ -13561,8 +14287,12 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X192" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="138"/>
       <c r="C193" s="171"/>
       <c r="D193" s="183"/>
@@ -13612,8 +14342,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X193" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="138"/>
       <c r="C194" s="171"/>
       <c r="D194" s="183"/>
@@ -13663,8 +14397,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X194" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="138"/>
       <c r="C195" s="171"/>
       <c r="D195" s="183"/>
@@ -13714,8 +14452,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X195" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="138"/>
       <c r="C196" s="171"/>
       <c r="D196" s="183"/>
@@ -13765,8 +14507,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X196" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="138"/>
       <c r="C197" s="171"/>
       <c r="D197" s="183"/>
@@ -13816,8 +14562,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X197" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="138"/>
       <c r="C198" s="171"/>
       <c r="D198" s="183"/>
@@ -13867,8 +14617,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X198" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="138"/>
       <c r="C199" s="171"/>
       <c r="D199" s="183"/>
@@ -13918,8 +14672,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X199" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="138"/>
       <c r="C200" s="171"/>
       <c r="D200" s="183"/>
@@ -13969,8 +14727,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X200" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="138"/>
       <c r="C201" s="171"/>
       <c r="D201" s="183"/>
@@ -14020,8 +14782,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X201" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="138"/>
       <c r="C202" s="171"/>
       <c r="D202" s="183"/>
@@ -14071,8 +14837,12 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X202" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="138"/>
       <c r="C203" s="171"/>
       <c r="D203" s="183"/>
@@ -14122,8 +14892,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X203" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="138"/>
       <c r="C204" s="171"/>
       <c r="D204" s="183"/>
@@ -14173,8 +14947,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X204" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="138"/>
       <c r="C205" s="171"/>
       <c r="D205" s="183"/>
@@ -14224,8 +15002,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X205" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="138"/>
       <c r="C206" s="171"/>
       <c r="D206" s="183"/>
@@ -14275,8 +15057,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X206" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="138"/>
       <c r="C207" s="171"/>
       <c r="D207" s="183"/>
@@ -14326,8 +15112,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X207" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="138"/>
       <c r="C208" s="171"/>
       <c r="D208" s="183"/>
@@ -14377,8 +15167,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X208" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="138"/>
       <c r="C209" s="171"/>
       <c r="D209" s="183"/>
@@ -14428,8 +15222,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X209" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="138"/>
       <c r="C210" s="171"/>
       <c r="D210" s="183"/>
@@ -14479,8 +15277,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X210" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="138"/>
       <c r="C211" s="171"/>
       <c r="D211" s="183"/>
@@ -14530,8 +15332,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X211" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="138"/>
       <c r="C212" s="171"/>
       <c r="D212" s="183"/>
@@ -14581,8 +15387,12 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X212" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="138"/>
       <c r="C213" s="171"/>
       <c r="D213" s="183"/>
@@ -14632,8 +15442,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X213" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="138"/>
       <c r="C214" s="171"/>
       <c r="D214" s="183"/>
@@ -14683,8 +15497,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X214" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="138"/>
       <c r="C215" s="171"/>
       <c r="D215" s="183"/>
@@ -14734,8 +15552,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X215" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="138"/>
       <c r="C216" s="171"/>
       <c r="D216" s="183"/>
@@ -14785,8 +15607,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X216" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="138"/>
       <c r="C217" s="171"/>
       <c r="D217" s="183"/>
@@ -14836,8 +15662,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X217" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="138"/>
       <c r="C218" s="171"/>
       <c r="D218" s="183"/>
@@ -14887,8 +15717,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X218" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="138"/>
       <c r="C219" s="171"/>
       <c r="D219" s="183"/>
@@ -14938,8 +15772,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X219" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="138"/>
       <c r="C220" s="171"/>
       <c r="D220" s="183"/>
@@ -14989,8 +15827,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X220" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="138"/>
       <c r="C221" s="171"/>
       <c r="D221" s="183"/>
@@ -15040,8 +15882,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X221" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="138"/>
       <c r="C222" s="171"/>
       <c r="D222" s="183"/>
@@ -15091,8 +15937,12 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X222" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="138"/>
       <c r="C223" s="171"/>
       <c r="D223" s="183"/>
@@ -15142,8 +15992,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X223" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="138"/>
       <c r="C224" s="171"/>
       <c r="D224" s="183"/>
@@ -15193,8 +16047,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X224" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="138"/>
       <c r="C225" s="171"/>
       <c r="D225" s="183"/>
@@ -15244,8 +16102,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X225" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="138"/>
       <c r="C226" s="171"/>
       <c r="D226" s="183"/>
@@ -15295,8 +16157,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X226" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="138"/>
       <c r="C227" s="171"/>
       <c r="D227" s="183"/>
@@ -15346,8 +16212,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X227" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="138"/>
       <c r="C228" s="171"/>
       <c r="D228" s="183"/>
@@ -15397,8 +16267,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X228" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="138"/>
       <c r="C229" s="171"/>
       <c r="D229" s="183"/>
@@ -15448,8 +16322,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X229" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="138"/>
       <c r="C230" s="171"/>
       <c r="D230" s="183"/>
@@ -15499,8 +16377,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X230" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="138"/>
       <c r="C231" s="171"/>
       <c r="D231" s="183"/>
@@ -15550,8 +16432,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X231" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="138"/>
       <c r="C232" s="171"/>
       <c r="D232" s="183"/>
@@ -15601,8 +16487,12 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X232" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="138"/>
       <c r="C233" s="171"/>
       <c r="D233" s="183"/>
@@ -15652,8 +16542,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X233" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="138"/>
       <c r="C234" s="171"/>
       <c r="D234" s="183"/>
@@ -15703,8 +16597,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X234" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="138"/>
       <c r="C235" s="171"/>
       <c r="D235" s="183"/>
@@ -15754,8 +16652,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X235" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="138"/>
       <c r="C236" s="171"/>
       <c r="D236" s="183"/>
@@ -15805,8 +16707,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X236" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="138"/>
       <c r="C237" s="171"/>
       <c r="D237" s="183"/>
@@ -15856,8 +16762,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X237" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="138"/>
       <c r="C238" s="171"/>
       <c r="D238" s="183"/>
@@ -15907,8 +16817,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X238" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="138"/>
       <c r="C239" s="171"/>
       <c r="D239" s="183"/>
@@ -15958,8 +16872,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X239" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="138"/>
       <c r="C240" s="171"/>
       <c r="D240" s="183"/>
@@ -16009,8 +16927,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X240" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="138"/>
       <c r="C241" s="171"/>
       <c r="D241" s="183"/>
@@ -16060,8 +16982,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X241" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="138"/>
       <c r="C242" s="171"/>
       <c r="D242" s="183"/>
@@ -16111,8 +17037,12 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X242" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="138"/>
       <c r="C243" s="171"/>
       <c r="D243" s="183"/>
@@ -16162,8 +17092,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X243" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="138"/>
       <c r="C244" s="171"/>
       <c r="D244" s="183"/>
@@ -16213,8 +17147,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X244" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="138"/>
       <c r="C245" s="171"/>
       <c r="D245" s="183"/>
@@ -16264,8 +17202,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X245" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="138"/>
       <c r="C246" s="171"/>
       <c r="D246" s="183"/>
@@ -16315,8 +17257,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X246" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="138"/>
       <c r="C247" s="171"/>
       <c r="D247" s="183"/>
@@ -16366,8 +17312,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X247" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="138"/>
       <c r="C248" s="171"/>
       <c r="D248" s="183"/>
@@ -16417,8 +17367,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X248" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="138"/>
       <c r="C249" s="171"/>
       <c r="D249" s="183"/>
@@ -16468,8 +17422,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X249" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="138"/>
       <c r="C250" s="171"/>
       <c r="D250" s="183"/>
@@ -16519,8 +17477,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X250" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="138"/>
       <c r="C251" s="171"/>
       <c r="D251" s="183"/>
@@ -16570,8 +17532,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X251" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="138"/>
       <c r="C252" s="171"/>
       <c r="D252" s="183"/>
@@ -16621,8 +17587,12 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X252" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="138"/>
       <c r="C253" s="171"/>
       <c r="D253" s="183"/>
@@ -16672,8 +17642,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X253" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="138"/>
       <c r="C254" s="171"/>
       <c r="D254" s="183"/>
@@ -16723,8 +17697,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X254" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="138"/>
       <c r="C255" s="171"/>
       <c r="D255" s="183"/>
@@ -16774,8 +17752,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X255" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="138"/>
       <c r="C256" s="171"/>
       <c r="D256" s="183"/>
@@ -16825,8 +17807,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X256" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="138"/>
       <c r="C257" s="171"/>
       <c r="D257" s="183"/>
@@ -16876,8 +17862,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X257" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="138"/>
       <c r="C258" s="171"/>
       <c r="D258" s="183"/>
@@ -16927,8 +17917,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X258" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="138"/>
       <c r="C259" s="171"/>
       <c r="D259" s="183"/>
@@ -16978,8 +17972,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X259" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="138"/>
       <c r="C260" s="171"/>
       <c r="D260" s="183"/>
@@ -17029,8 +18027,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X260" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="138"/>
       <c r="C261" s="171"/>
       <c r="D261" s="183"/>
@@ -17080,8 +18082,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X261" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="138"/>
       <c r="C262" s="171"/>
       <c r="D262" s="183"/>
@@ -17131,8 +18137,12 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X262" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="138"/>
       <c r="C263" s="171"/>
       <c r="D263" s="183"/>
@@ -17182,8 +18192,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X263" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="138"/>
       <c r="C264" s="171"/>
       <c r="D264" s="183"/>
@@ -17233,8 +18247,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X264" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="138"/>
       <c r="C265" s="171"/>
       <c r="D265" s="183"/>
@@ -17284,8 +18302,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X265" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="138"/>
       <c r="C266" s="171"/>
       <c r="D266" s="183"/>
@@ -17335,8 +18357,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X266" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="138"/>
       <c r="C267" s="171"/>
       <c r="D267" s="183"/>
@@ -17386,8 +18412,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X267" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="138"/>
       <c r="C268" s="171"/>
       <c r="D268" s="183"/>
@@ -17437,8 +18467,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X268" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="138"/>
       <c r="C269" s="171"/>
       <c r="D269" s="183"/>
@@ -17488,8 +18522,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X269" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="138"/>
       <c r="C270" s="171"/>
       <c r="D270" s="183"/>
@@ -17539,8 +18577,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X270" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="138"/>
       <c r="C271" s="171"/>
       <c r="D271" s="183"/>
@@ -17590,8 +18632,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X271" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="138"/>
       <c r="C272" s="171"/>
       <c r="D272" s="183"/>
@@ -17641,8 +18687,12 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X272" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="138"/>
       <c r="C273" s="171"/>
       <c r="D273" s="183"/>
@@ -17692,8 +18742,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X273" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="138"/>
       <c r="C274" s="171"/>
       <c r="D274" s="183"/>
@@ -17743,8 +18797,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X274" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="138"/>
       <c r="C275" s="171"/>
       <c r="D275" s="183"/>
@@ -17794,8 +18852,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X275" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="138"/>
       <c r="C276" s="171"/>
       <c r="D276" s="183"/>
@@ -17845,8 +18907,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X276" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="138"/>
       <c r="C277" s="171"/>
       <c r="D277" s="183"/>
@@ -17896,8 +18962,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X277" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="138"/>
       <c r="C278" s="171"/>
       <c r="D278" s="183"/>
@@ -17947,8 +19017,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X278" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="138"/>
       <c r="C279" s="171"/>
       <c r="D279" s="183"/>
@@ -17998,8 +19072,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X279" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="138"/>
       <c r="C280" s="171"/>
       <c r="D280" s="183"/>
@@ -18049,8 +19127,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X280" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="138"/>
       <c r="C281" s="171"/>
       <c r="D281" s="183"/>
@@ -18100,8 +19182,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X281" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="138"/>
       <c r="C282" s="171"/>
       <c r="D282" s="183"/>
@@ -18151,8 +19237,12 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X282" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="138"/>
       <c r="C283" s="171"/>
       <c r="D283" s="183"/>
@@ -18202,8 +19292,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X283" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="138"/>
       <c r="C284" s="171"/>
       <c r="D284" s="183"/>
@@ -18253,8 +19347,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X284" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="138"/>
       <c r="C285" s="171"/>
       <c r="D285" s="183"/>
@@ -18304,8 +19402,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X285" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="138"/>
       <c r="C286" s="171"/>
       <c r="D286" s="183"/>
@@ -18355,8 +19457,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X286" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="138"/>
       <c r="C287" s="171"/>
       <c r="D287" s="183"/>
@@ -18406,8 +19512,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X287" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="138"/>
       <c r="C288" s="171"/>
       <c r="D288" s="183"/>
@@ -18457,8 +19567,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X288" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="138"/>
       <c r="C289" s="171"/>
       <c r="D289" s="183"/>
@@ -18508,8 +19622,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X289" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="138"/>
       <c r="C290" s="171"/>
       <c r="D290" s="183"/>
@@ -18559,8 +19677,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X290" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="138"/>
       <c r="C291" s="171"/>
       <c r="D291" s="183"/>
@@ -18610,8 +19732,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X291" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="138"/>
       <c r="C292" s="171"/>
       <c r="D292" s="183"/>
@@ -18661,8 +19787,12 @@
         <f t="shared" si="40"/>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X292" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="138"/>
       <c r="C293" s="171"/>
       <c r="D293" s="183"/>
@@ -18712,8 +19842,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X293" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="138"/>
       <c r="C294" s="171"/>
       <c r="D294" s="183"/>
@@ -18763,8 +19897,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="295" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X294" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="138"/>
       <c r="C295" s="171"/>
       <c r="D295" s="183"/>
@@ -18814,8 +19952,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X295" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="138"/>
       <c r="C296" s="171"/>
       <c r="D296" s="183"/>
@@ -18865,8 +20007,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X296" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="138"/>
       <c r="C297" s="171"/>
       <c r="D297" s="183"/>
@@ -18916,8 +20062,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X297" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="138"/>
       <c r="C298" s="171"/>
       <c r="D298" s="183"/>
@@ -18967,8 +20117,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="299" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X298" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="138"/>
       <c r="C299" s="171"/>
       <c r="D299" s="183"/>
@@ -19018,8 +20172,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X299" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="138"/>
       <c r="C300" s="171"/>
       <c r="D300" s="183"/>
@@ -19069,8 +20227,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X300" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="138"/>
       <c r="C301" s="171"/>
       <c r="D301" s="183"/>
@@ -19120,8 +20282,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X301" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="138"/>
       <c r="C302" s="171"/>
       <c r="D302" s="183"/>
@@ -19171,8 +20337,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-    </row>
-    <row r="303" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X302" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="138"/>
       <c r="C303" s="171"/>
       <c r="D303" s="183"/>
@@ -19222,8 +20392,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X303" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="138"/>
       <c r="C304" s="171"/>
       <c r="D304" s="183"/>
@@ -19273,8 +20447,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X304" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="138"/>
       <c r="C305" s="171"/>
       <c r="D305" s="183"/>
@@ -19324,8 +20502,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X305" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="138"/>
       <c r="C306" s="171"/>
       <c r="D306" s="183"/>
@@ -19375,8 +20557,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="307" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X306" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="138"/>
       <c r="C307" s="171"/>
       <c r="D307" s="183"/>
@@ -19426,8 +20612,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X307" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="138"/>
       <c r="C308" s="171"/>
       <c r="D308" s="183"/>
@@ -19477,8 +20667,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="309" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X308" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="138"/>
       <c r="C309" s="171"/>
       <c r="D309" s="183"/>
@@ -19528,8 +20722,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X309" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="138"/>
       <c r="C310" s="171"/>
       <c r="D310" s="183"/>
@@ -19579,8 +20777,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="311" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X310" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="138"/>
       <c r="C311" s="171"/>
       <c r="D311" s="183"/>
@@ -19630,8 +20832,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X311" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="138"/>
       <c r="C312" s="171"/>
       <c r="D312" s="183"/>
@@ -19681,8 +20887,12 @@
         <f t="shared" si="42"/>
         <v/>
       </c>
-    </row>
-    <row r="313" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X312" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="138"/>
       <c r="C313" s="171"/>
       <c r="D313" s="183"/>
@@ -19732,8 +20942,12 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-    </row>
-    <row r="314" spans="2:23" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X313" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="138"/>
       <c r="C314" s="171"/>
       <c r="D314" s="183"/>
@@ -19748,8 +20962,12 @@
         <v>0</v>
       </c>
       <c r="L314" s="195"/>
-    </row>
-    <row r="315" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X314" s="204">
+        <f>Milestones4352[[#This Row],[GoLive]]-Milestones4352[[#This Row],[Start Date]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
@@ -19759,7 +20977,7 @@
       <c r="J315"/>
       <c r="L315"/>
     </row>
-    <row r="316" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
@@ -19769,10 +20987,10 @@
       <c r="J316"/>
       <c r="L316"/>
     </row>
-    <row r="317" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="321" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="323" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20908,183 +22126,183 @@
     <mergeCell ref="S4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="M8:V9 M10:W10">
-    <cfRule type="expression" dxfId="104" priority="110">
+    <cfRule type="expression" dxfId="78" priority="110">
       <formula>AND(TODAY()&gt;=M$8,TODAY()&lt;N$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:W313">
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="77" priority="102">
       <formula>type="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="76" priority="103">
       <formula>type="Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:W7">
-    <cfRule type="expression" dxfId="101" priority="170">
+    <cfRule type="expression" dxfId="75" priority="170">
       <formula>M$8&lt;=EOMONTH($M$8,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="173">
+    <cfRule type="expression" dxfId="74" priority="173">
       <formula>AND(M$8&lt;=EOMONTH($M$8,1),M$8&gt;EOMONTH($M$8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:W7">
-    <cfRule type="expression" dxfId="99" priority="172">
+    <cfRule type="expression" dxfId="73" priority="172">
       <formula>AND(N$8&lt;=EOMONTH($M$8,2),N$8&gt;EOMONTH($M$8,0),N$8&gt;EOMONTH($M$8,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9">
-    <cfRule type="expression" dxfId="98" priority="200">
+    <cfRule type="expression" dxfId="72" priority="200">
       <formula>AND(TODAY()&gt;=W$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:V313">
-    <cfRule type="expression" dxfId="97" priority="234">
+    <cfRule type="expression" dxfId="71" priority="234">
       <formula>AND(TODAY()&gt;=M$8,TODAY()&lt;N$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W313">
-    <cfRule type="expression" dxfId="96" priority="245">
+    <cfRule type="expression" dxfId="70" priority="245">
       <formula>AND(TODAY()&gt;=W$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:W313">
-    <cfRule type="expression" dxfId="95" priority="395">
+    <cfRule type="expression" dxfId="69" priority="395">
       <formula>AND($G315="Complete",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="396">
+    <cfRule type="expression" dxfId="68" priority="396">
       <formula>AND($G315="High Risk",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="397">
+    <cfRule type="expression" dxfId="67" priority="397">
       <formula>AND($G315="On Track",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="398" stopIfTrue="1">
       <formula>AND($G315="At Risk",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="399" stopIfTrue="1">
       <formula>AND($G315="Low Risk",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="400" stopIfTrue="1">
       <formula>AND($G315="High Risk",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="401" stopIfTrue="1">
       <formula>AND($G315="On Track",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="402" stopIfTrue="1">
       <formula>AND($G315="Med Risk",M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="403" stopIfTrue="1">
       <formula>AND(LEN($G315)=0,M$8&gt;=$I315,M$8&lt;=$I315+$K315-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:W1000">
-    <cfRule type="expression" dxfId="86" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="356" stopIfTrue="1">
       <formula>AND($G12="Complete",M$8&gt;=$I12,M$8&lt;=$I12+$K12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="357" stopIfTrue="1">
       <formula>AND($G12="High Risk",M$8&gt;=$I12,M$8&lt;=$I12+$K12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="358" stopIfTrue="1">
       <formula>AND($G12="On Track",M$8&gt;=$I12,M$8&lt;=$I12+$K12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="359" stopIfTrue="1">
       <formula>AND($G12="At Risk",M$8&gt;=$I12,M$8&lt;=$I12+$K12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:W1000">
-    <cfRule type="expression" dxfId="82" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="360" stopIfTrue="1">
       <formula>AND($G11="Low Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="361" stopIfTrue="1">
       <formula>AND($G11="High Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="362" stopIfTrue="1">
       <formula>AND($G11="On Track",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="363" stopIfTrue="1">
       <formula>AND($G11="Med Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="364" stopIfTrue="1">
       <formula>AND(LEN($G11)=0,M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Benefit &amp; Config">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Benefit &amp; Config">
       <formula>NOT(ISERROR(SEARCH("Benefit &amp; Config",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="16" operator="containsText" text="Provider Experience">
+    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="Provider Experience">
       <formula>NOT(ISERROR(SEARCH("Provider Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="Member Experience">
+    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="Member Experience">
       <formula>NOT(ISERROR(SEARCH("Member Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="18" operator="containsText" text="Broker &amp; Employer Experience">
+    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="Broker &amp; Employer Experience">
       <formula>NOT(ISERROR(SEARCH("Broker &amp; Employer Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="Commercial Medical Product">
+    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="Commercial Medical Product">
       <formula>NOT(ISERROR(SEARCH("Commercial Medical Product",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="20" operator="containsText" text="Digital Therapeutic &amp; Innovation Products">
+    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="Digital Therapeutic &amp; Innovation Products">
       <formula>NOT(ISERROR(SEARCH("Digital Therapeutic &amp; Innovation Products",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="Consumer Engagement">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Consumer Engagement">
       <formula>NOT(ISERROR(SEARCH("Consumer Engagement",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="Specialty">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Specialty">
       <formula>NOT(ISERROR(SEARCH("Specialty",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="Quotes Install &amp; Bill">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Quotes Install &amp; Bill">
       <formula>NOT(ISERROR(SEARCH("Quotes Install &amp; Bill",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="Data Migration">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Data Migration">
       <formula>NOT(ISERROR(SEARCH("Data Migration",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="CMP">
+    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="CMP">
       <formula>NOT(ISERROR(SEARCH("CMP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="CE DTI">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="CE DTI">
       <formula>NOT(ISERROR(SEARCH("CE DTI",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="12" operator="containsText" text="SP">
+    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="SP">
       <formula>NOT(ISERROR(SEARCH("SP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="QIB">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="QIB">
       <formula>NOT(ISERROR(SEARCH("QIB",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="BC">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="BC">
       <formula>NOT(ISERROR(SEARCH("BC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="SC">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="SC">
       <formula>NOT(ISERROR(SEARCH("SC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="PCP">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="PCP">
       <formula>NOT(ISERROR(SEARCH("PCP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="RA">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="RA">
       <formula>NOT(ISERROR(SEARCH("RA",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="PE">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="PE">
       <formula>NOT(ISERROR(SEARCH("PE",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="ME">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="ME">
       <formula>NOT(ISERROR(SEARCH("ME",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="BEE">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="BEE">
       <formula>NOT(ISERROR(SEARCH("BEE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="POC">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="POC">
       <formula>NOT(ISERROR(SEARCH("POC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="OR">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="OR">
       <formula>NOT(ISERROR(SEARCH("OR",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21152,27 +22370,27 @@
     <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:68" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
@@ -21299,40 +22517,40 @@
         <v>45</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="225" t="s">
+      <c r="I4" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="226" t="s">
+      <c r="N4" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="227" t="s">
+      <c r="S4" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="220" t="s">
+      <c r="X4" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="213"/>
-      <c r="Z4" s="213"/>
-      <c r="AA4" s="213"/>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214"/>
+      <c r="AA4" s="214"/>
       <c r="AB4" s="23"/>
-      <c r="AC4" s="221" t="s">
+      <c r="AC4" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="213"/>
-      <c r="AE4" s="213"/>
-      <c r="AF4" s="213"/>
+      <c r="AD4" s="214"/>
+      <c r="AE4" s="214"/>
+      <c r="AF4" s="214"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
@@ -28307,56 +29525,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28418,32 +29636,32 @@
     <row r="1" spans="1:73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:73" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
       <c r="Z2" s="81"/>
       <c r="AA2" s="81"/>
       <c r="AB2" s="81"/>
@@ -28527,36 +29745,36 @@
         <v>45</v>
       </c>
       <c r="M4" s="61"/>
-      <c r="N4" s="225" t="s">
+      <c r="N4" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="S4" s="226" t="s">
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="S4" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
-      <c r="X4" s="227" t="s">
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214"/>
+      <c r="X4" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="213"/>
-      <c r="Z4" s="213"/>
-      <c r="AA4" s="213"/>
-      <c r="AC4" s="228" t="s">
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214"/>
+      <c r="AA4" s="214"/>
+      <c r="AC4" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="213"/>
-      <c r="AE4" s="213"/>
-      <c r="AF4" s="213"/>
-      <c r="AH4" s="221" t="s">
+      <c r="AD4" s="214"/>
+      <c r="AE4" s="214"/>
+      <c r="AF4" s="214"/>
+      <c r="AH4" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="213"/>
-      <c r="AJ4" s="213"/>
-      <c r="AK4" s="213"/>
+      <c r="AI4" s="214"/>
+      <c r="AJ4" s="214"/>
+      <c r="AK4" s="214"/>
     </row>
     <row r="5" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -35580,56 +36798,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:BQ36">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=N$7,TODAY()&lt;O$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:AR6">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>N$7&lt;=EOMONTH($N$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:BQ6">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(O$7&lt;=EOMONTH($N$7,2),O$7&gt;EOMONTH($N$7,0),O$7&gt;EOMONTH($N$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:BQ6">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(N$7&lt;=EOMONTH($N$7,1),N$7&gt;EOMONTH($N$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:BQ35">
-    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:BQ36">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
